--- a/04 기능정의 명세서 V1.00(20210817_5조_SFR통일).xlsx
+++ b/04 기능정의 명세서 V1.00(20210817_5조_SFR통일).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sangjin\main\기능정의명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\실무프로젝트\01_ZOOZOO총회\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4AEE2E-86B6-4C40-BBA4-C591E59FB2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E43C57-E5CA-40EC-BDE1-521E35D59CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="1320" windowWidth="20610" windowHeight="12015" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="612" windowWidth="17280" windowHeight="11388" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="7" r:id="rId1"/>
@@ -708,10 +708,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>김태연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>주식시세 예측 알고리즘 개발</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1053,6 +1049,10 @@
   </si>
   <si>
     <t>REQ-010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5조</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1947,6 +1947,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1976,45 +1982,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2085,17 +2052,50 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="178" fontId="28" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="28" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3152,7 +3152,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6380743" y="4724400"/>
+          <a:off x="6399793" y="4732020"/>
           <a:ext cx="0" cy="529602"/>
           <a:chOff x="3158324" y="825336"/>
           <a:chExt cx="4411448" cy="847391"/>
@@ -3745,8 +3745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" customHeight="1" zeroHeight="1"/>
@@ -3768,21 +3768,21 @@
     </row>
     <row r="2" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:5" ht="70.05" customHeight="1">
       <c r="A3" s="56"/>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
     </row>
     <row r="4" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="2"/>
@@ -3801,28 +3801,28 @@
       <c r="B6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="68"/>
+      <c r="C6" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="70"/>
     </row>
     <row r="7" spans="1:5" ht="25.95" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
     </row>
     <row r="8" spans="1:5" ht="25.95" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="72"/>
+      <c r="D8" s="74"/>
     </row>
     <row r="9" spans="1:5" ht="25.95" customHeight="1">
       <c r="A9" s="2"/>
@@ -3830,10 +3830,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.95" customHeight="1" thickBot="1">
@@ -3842,10 +3842,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="10.050000000000001" customHeight="1">
@@ -3885,8 +3885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1"/>
@@ -3905,67 +3905,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="9" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B1" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
     </row>
     <row r="2" spans="2:10" s="9" customFormat="1" ht="22.05" customHeight="1">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="101"/>
     </row>
     <row r="3" spans="2:10" s="9" customFormat="1" ht="22.05" customHeight="1" thickBot="1">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="102" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
       <c r="G3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="106"/>
     </row>
     <row r="4" spans="2:10" customFormat="1" ht="10.050000000000001" customHeight="1"/>
     <row r="5" spans="2:10" s="9" customFormat="1" ht="30.15" customHeight="1">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
     </row>
     <row r="6" spans="2:10" ht="21.15" customHeight="1">
       <c r="B6" s="18" t="s">
@@ -3980,11 +3980,11 @@
       <c r="E6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="90" t="s">
+      <c r="F6" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="18" t="s">
         <v>3</v>
       </c>
@@ -4006,13 +4006,13 @@
       <c r="E7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="95"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="35" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="J7" s="35"/>
     </row>
@@ -4030,13 +4030,13 @@
       <c r="E8" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="38" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="J8" s="38"/>
     </row>
@@ -4048,9 +4048,9 @@
       <c r="C9" s="36"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="90"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
     </row>
@@ -4062,9 +4062,9 @@
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
     </row>
@@ -4076,9 +4076,9 @@
       <c r="C11" s="36"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="98"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
     </row>
@@ -4090,9 +4090,9 @@
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="98"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
     </row>
@@ -4104,9 +4104,9 @@
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
     </row>
@@ -4118,9 +4118,9 @@
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
     </row>
@@ -4132,9 +4132,9 @@
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
     </row>
@@ -4146,9 +4146,9 @@
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="98"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
     </row>
@@ -4160,9 +4160,9 @@
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="101"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
     </row>
@@ -4174,9 +4174,9 @@
       <c r="C18" s="39"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="104"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="93"/>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
     </row>
@@ -4188,21 +4188,28 @@
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="2:10" hidden="1">
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
     </row>
     <row r="21" spans="2:10" hidden="1">
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="F6:H6"/>
@@ -4219,13 +4226,6 @@
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4248,8 +4248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" outlineLevelCol="1"/>
@@ -4258,10 +4258,10 @@
     <col min="2" max="2" width="5.796875" customWidth="1"/>
     <col min="3" max="3" width="10.59765625" style="1" customWidth="1"/>
     <col min="4" max="6" width="14.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.796875" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="7.8984375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.296875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.09765625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="65.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.296875" customWidth="1"/>
     <col min="13" max="17" width="13" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="13.296875" customWidth="1"/>
@@ -4270,24 +4270,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="34.799999999999997" customHeight="1">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
     </row>
     <row r="3" spans="2:17" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B3" s="19" t="s">
@@ -4345,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>196</v>
@@ -4353,10 +4353,10 @@
       <c r="E4" s="61"/>
       <c r="F4" s="47"/>
       <c r="G4" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>20</v>
@@ -4367,11 +4367,11 @@
       <c r="K4" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L4" s="107" t="s">
-        <v>211</v>
-      </c>
-      <c r="M4" s="107" t="s">
-        <v>291</v>
+      <c r="L4" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>290</v>
       </c>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
@@ -4384,7 +4384,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="61" t="s">
@@ -4392,10 +4392,10 @@
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I5" s="24" t="s">
         <v>20</v>
@@ -4406,11 +4406,11 @@
       <c r="K5" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L5" s="107" t="s">
-        <v>244</v>
-      </c>
-      <c r="M5" s="107" t="s">
-        <v>283</v>
+      <c r="L5" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5" s="65" t="s">
+        <v>282</v>
       </c>
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
@@ -4423,7 +4423,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="61"/>
@@ -4431,7 +4431,7 @@
         <v>197</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>127</v>
@@ -4445,11 +4445,11 @@
       <c r="K6" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L6" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="M6" s="107" t="s">
-        <v>283</v>
+      <c r="L6" s="65" t="s">
+        <v>244</v>
+      </c>
+      <c r="M6" s="65" t="s">
+        <v>282</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -4462,7 +4462,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="63"/>
@@ -4470,7 +4470,7 @@
         <v>73</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>127</v>
@@ -4484,11 +4484,11 @@
       <c r="K7" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L7" s="107" t="s">
-        <v>246</v>
-      </c>
-      <c r="M7" s="107" t="s">
-        <v>283</v>
+      <c r="L7" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="M7" s="65" t="s">
+        <v>282</v>
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="28"/>
@@ -4501,7 +4501,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>199</v>
@@ -4509,7 +4509,7 @@
       <c r="E8" s="62"/>
       <c r="F8" s="48"/>
       <c r="G8" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>127</v>
@@ -4523,11 +4523,11 @@
       <c r="K8" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L8" s="107" t="s">
-        <v>212</v>
-      </c>
-      <c r="M8" s="107" t="s">
-        <v>284</v>
+      <c r="L8" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="M8" s="65" t="s">
+        <v>283</v>
       </c>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
@@ -4540,7 +4540,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>198</v>
@@ -4548,7 +4548,7 @@
       <c r="E9" s="61"/>
       <c r="F9" s="47"/>
       <c r="G9" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>127</v>
@@ -4562,11 +4562,11 @@
       <c r="K9" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L9" s="107" t="s">
-        <v>247</v>
-      </c>
-      <c r="M9" s="108" t="s">
-        <v>285</v>
+      <c r="L9" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>284</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
@@ -4579,15 +4579,15 @@
         <v>7</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>127</v>
@@ -4601,11 +4601,11 @@
       <c r="K10" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L10" s="107" t="s">
-        <v>213</v>
-      </c>
-      <c r="M10" s="108" t="s">
-        <v>285</v>
+      <c r="L10" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>284</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
@@ -4618,15 +4618,15 @@
         <v>8</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="61"/>
       <c r="F11" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>127</v>
@@ -4640,11 +4640,11 @@
       <c r="K11" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L11" s="107" t="s">
-        <v>248</v>
-      </c>
-      <c r="M11" s="108" t="s">
-        <v>285</v>
+      <c r="L11" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="M11" s="66" t="s">
+        <v>284</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
@@ -4657,15 +4657,15 @@
         <v>9</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="61"/>
       <c r="F12" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>127</v>
@@ -4679,11 +4679,11 @@
       <c r="K12" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L12" s="107" t="s">
-        <v>249</v>
-      </c>
-      <c r="M12" s="108" t="s">
-        <v>285</v>
+      <c r="L12" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>284</v>
       </c>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
@@ -4696,15 +4696,15 @@
         <v>10</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="61"/>
       <c r="F13" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>127</v>
@@ -4718,11 +4718,11 @@
       <c r="K13" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L13" s="107" t="s">
-        <v>250</v>
-      </c>
-      <c r="M13" s="108" t="s">
-        <v>285</v>
+      <c r="L13" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="M13" s="66" t="s">
+        <v>284</v>
       </c>
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
@@ -4735,15 +4735,15 @@
         <v>11</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F14" s="47"/>
       <c r="G14" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>127</v>
@@ -4757,11 +4757,11 @@
       <c r="K14" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L14" s="107" t="s">
-        <v>251</v>
-      </c>
-      <c r="M14" s="107" t="s">
-        <v>286</v>
+      <c r="L14" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="M14" s="65" t="s">
+        <v>285</v>
       </c>
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
@@ -4774,15 +4774,15 @@
         <v>12</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D15" s="47"/>
       <c r="E15" s="61"/>
       <c r="F15" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" s="25" t="s">
         <v>227</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>228</v>
       </c>
       <c r="H15" s="26" t="s">
         <v>127</v>
@@ -4796,11 +4796,11 @@
       <c r="K15" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L15" s="107" t="s">
-        <v>252</v>
-      </c>
-      <c r="M15" s="107" t="s">
-        <v>287</v>
+      <c r="L15" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="M15" s="65" t="s">
+        <v>286</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
@@ -4813,15 +4813,15 @@
         <v>13</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E16" s="61"/>
       <c r="F16" s="47"/>
       <c r="G16" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>127</v>
@@ -4835,11 +4835,11 @@
       <c r="K16" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L16" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="M16" s="107" t="s">
-        <v>287</v>
+      <c r="L16" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="M16" s="65" t="s">
+        <v>286</v>
       </c>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
@@ -4852,15 +4852,15 @@
         <v>14</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D17" s="47"/>
       <c r="E17" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>127</v>
@@ -4874,11 +4874,11 @@
       <c r="K17" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L17" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="M17" s="107" t="s">
-        <v>287</v>
+      <c r="L17" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="M17" s="65" t="s">
+        <v>286</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
@@ -4891,15 +4891,15 @@
         <v>15</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D18" s="47"/>
       <c r="E18" s="61"/>
       <c r="F18" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H18" s="26" t="s">
         <v>127</v>
@@ -4913,11 +4913,11 @@
       <c r="K18" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L18" s="107" t="s">
-        <v>254</v>
-      </c>
-      <c r="M18" s="107" t="s">
-        <v>287</v>
+      <c r="L18" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="M18" s="65" t="s">
+        <v>286</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
@@ -4930,15 +4930,15 @@
         <v>16</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D19" s="47"/>
       <c r="E19" s="61"/>
       <c r="F19" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>232</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>233</v>
       </c>
       <c r="H19" s="26" t="s">
         <v>127</v>
@@ -4952,11 +4952,11 @@
       <c r="K19" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L19" s="107" t="s">
-        <v>255</v>
-      </c>
-      <c r="M19" s="107" t="s">
-        <v>287</v>
+      <c r="L19" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="M19" s="65" t="s">
+        <v>286</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
@@ -4969,15 +4969,15 @@
         <v>17</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E20" s="61"/>
       <c r="F20" s="47"/>
       <c r="G20" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H20" s="26" t="s">
         <v>127</v>
@@ -4991,11 +4991,11 @@
       <c r="K20" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L20" s="107" t="s">
-        <v>215</v>
-      </c>
-      <c r="M20" s="107" t="s">
-        <v>288</v>
+      <c r="L20" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="M20" s="65" t="s">
+        <v>287</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="27"/>
@@ -5008,15 +5008,15 @@
         <v>18</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D21" s="47"/>
       <c r="E21" s="61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F21" s="47"/>
       <c r="G21" s="46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>127</v>
@@ -5030,11 +5030,11 @@
       <c r="K21" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L21" s="107" t="s">
-        <v>259</v>
-      </c>
-      <c r="M21" s="108" t="s">
-        <v>290</v>
+      <c r="L21" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="M21" s="66" t="s">
+        <v>289</v>
       </c>
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
@@ -5047,15 +5047,15 @@
         <v>19</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D22" s="47"/>
       <c r="E22" s="63"/>
       <c r="F22" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>240</v>
       </c>
       <c r="H22" s="26" t="s">
         <v>127</v>
@@ -5069,11 +5069,11 @@
       <c r="K22" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L22" s="107" t="s">
-        <v>258</v>
-      </c>
-      <c r="M22" s="108" t="s">
-        <v>290</v>
+      <c r="L22" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="M22" s="66" t="s">
+        <v>289</v>
       </c>
       <c r="N22" s="27"/>
       <c r="O22" s="27"/>
@@ -5086,15 +5086,15 @@
         <v>20</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>127</v>
@@ -5108,11 +5108,11 @@
       <c r="K23" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L23" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="M23" s="107" t="s">
-        <v>289</v>
+      <c r="L23" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="M23" s="65" t="s">
+        <v>288</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="27"/>
@@ -5125,15 +5125,15 @@
         <v>21</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="63"/>
       <c r="F24" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" s="25" t="s">
         <v>227</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>228</v>
       </c>
       <c r="H24" s="26" t="s">
         <v>127</v>
@@ -5147,11 +5147,11 @@
       <c r="K24" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L24" s="107" t="s">
-        <v>256</v>
-      </c>
-      <c r="M24" s="107" t="s">
-        <v>289</v>
+      <c r="L24" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="M24" s="65" t="s">
+        <v>288</v>
       </c>
       <c r="N24" s="27"/>
       <c r="O24" s="27"/>
@@ -5164,15 +5164,15 @@
         <v>22</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D25" s="47"/>
       <c r="E25" s="61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F25" s="47"/>
       <c r="G25" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H25" s="26" t="s">
         <v>127</v>
@@ -5186,11 +5186,11 @@
       <c r="K25" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="L25" s="107" t="s">
-        <v>257</v>
-      </c>
-      <c r="M25" s="107" t="s">
-        <v>292</v>
+      <c r="L25" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="M25" s="65" t="s">
+        <v>291</v>
       </c>
       <c r="N25" s="27"/>
       <c r="O25" s="27"/>
@@ -7480,24 +7480,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="34.950000000000003" customHeight="1">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
     </row>
     <row r="2" spans="2:17" ht="4.95" customHeight="1"/>
     <row r="3" spans="2:17" s="1" customFormat="1" ht="26.4">
